--- a/output/1Y_P4_1VAL-D.xlsx
+++ b/output/1Y_P4_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>9.073499999999999</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>1102.1105</v>
       </c>
-      <c r="G2" s="1">
-        <v>1102.1105</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.0906</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>9.073499999999999</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.0906</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>9.379</v>
       </c>
+      <c r="E3" s="1">
+        <v>1102.1105</v>
+      </c>
       <c r="F3" s="1">
         <v>1066.2117</v>
       </c>
-      <c r="G3" s="1">
-        <v>2168.3223</v>
-      </c>
       <c r="H3" s="1">
-        <v>20231.0975</v>
+        <v>10283.022</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9.223699999999999</v>
+        <v>10283.022</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>9.073499999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20231.0975</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0142</v>
+        <v>0.0283</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>9.661099999999999</v>
       </c>
+      <c r="E4" s="1">
+        <v>2168.3223</v>
+      </c>
       <c r="F4" s="1">
         <v>1035.0788</v>
       </c>
-      <c r="G4" s="1">
-        <v>3203.4011</v>
-      </c>
       <c r="H4" s="1">
-        <v>30787.5678</v>
+        <v>20839.5287</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>9.365</v>
+        <v>20839.5287</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>9.223699999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30787.5678</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0184</v>
+        <v>0.0274</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>10.7352</v>
       </c>
+      <c r="E5" s="1">
+        <v>3203.4011</v>
+      </c>
       <c r="F5" s="1">
         <v>931.515</v>
       </c>
-      <c r="G5" s="1">
-        <v>4134.9161</v>
-      </c>
       <c r="H5" s="1">
-        <v>44158.8368</v>
+        <v>34210.7222</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>9.6737</v>
+        <v>34210.7222</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>9.365</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>44158.8368</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0827</v>
+        <v>0.1093</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>10.2783</v>
       </c>
+      <c r="E6" s="1">
+        <v>4134.9161</v>
+      </c>
       <c r="F6" s="1">
         <v>972.9235</v>
       </c>
-      <c r="G6" s="1">
-        <v>5107.8397</v>
-      </c>
       <c r="H6" s="1">
-        <v>52227.6606</v>
+        <v>42279.5174</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>9.7889</v>
+        <v>42279.5174</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>9.6737</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52227.6606</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0357</v>
+        <v>-0.0437</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>9.807499999999999</v>
       </c>
+      <c r="E7" s="1">
+        <v>5107.8397</v>
+      </c>
       <c r="F7" s="1">
         <v>1019.6278</v>
       </c>
-      <c r="G7" s="1">
-        <v>6127.4675</v>
-      </c>
       <c r="H7" s="1">
-        <v>59783.2494</v>
+        <v>49835.1485</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>9.792</v>
+        <v>49835.1485</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>9.7889</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.5</v>
       </c>
-      <c r="L7" s="1">
-        <v>2298.5278</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-7701.4722</v>
+        <v>1860.7123</v>
       </c>
       <c r="O7" s="1">
-        <v>2298.5278</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>62081.7773</v>
+        <v>-8139.2877</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0023</v>
+        <v>-0.0468</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>10.4459</v>
       </c>
+      <c r="E8" s="1">
+        <v>6127.4675</v>
+      </c>
       <c r="F8" s="1">
-        <v>993.9869</v>
-      </c>
-      <c r="G8" s="1">
-        <v>7121.4544</v>
+        <v>987.0015</v>
       </c>
       <c r="H8" s="1">
-        <v>74004.01790000001</v>
+        <v>63674.804</v>
       </c>
       <c r="I8" s="1">
-        <v>70383.088</v>
+        <v>1860.7123</v>
       </c>
       <c r="J8" s="1">
-        <v>9.8832</v>
+        <v>65535.5163</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60310.1187</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>9.842599999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10383.088</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>1915.4399</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>75919.4578</v>
+        <v>-10310.1187</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0532</v>
+        <v>0.0953</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>9.6988</v>
       </c>
+      <c r="E9" s="1">
+        <v>7114.469</v>
+      </c>
       <c r="F9" s="1">
-        <v>1070.5539</v>
-      </c>
-      <c r="G9" s="1">
-        <v>8192.0083</v>
+        <v>1063.0303</v>
       </c>
       <c r="H9" s="1">
-        <v>79039.7729</v>
+        <v>68643.24249999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80766.1759</v>
+        <v>1550.5935</v>
       </c>
       <c r="J9" s="1">
-        <v>9.8591</v>
+        <v>70193.836</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70620.2374</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>9.926299999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10383.088</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>1532.3519</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>80572.12480000001</v>
+        <v>-10310.1187</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0622</v>
+        <v>-0.0707</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>10.0658</v>
       </c>
+      <c r="E10" s="1">
+        <v>8177.4993</v>
+      </c>
       <c r="F10" s="1">
-        <v>1031.5214</v>
-      </c>
-      <c r="G10" s="1">
-        <v>9223.529699999999</v>
+        <v>1024.2722</v>
       </c>
       <c r="H10" s="1">
-        <v>92359.8146</v>
+        <v>81885.3895</v>
       </c>
       <c r="I10" s="1">
-        <v>91149.26390000001</v>
+        <v>1240.4748</v>
       </c>
       <c r="J10" s="1">
-        <v>9.882300000000001</v>
+        <v>83125.8643</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80930.3561</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>9.896699999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10383.088</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>1149.2639</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>93509.0785</v>
+        <v>-10310.1187</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0324</v>
+        <v>0.0366</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>11.2848</v>
       </c>
+      <c r="E11" s="1">
+        <v>9201.771500000001</v>
+      </c>
       <c r="F11" s="1">
-        <v>920.095</v>
-      </c>
-      <c r="G11" s="1">
-        <v>10143.6247</v>
+        <v>913.6288</v>
       </c>
       <c r="H11" s="1">
-        <v>113875.3738</v>
+        <v>103301.8472</v>
       </c>
       <c r="I11" s="1">
-        <v>101532.3519</v>
+        <v>930.3561</v>
       </c>
       <c r="J11" s="1">
-        <v>10.0095</v>
+        <v>104232.2033</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91240.4748</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>9.9155</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10383.088</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>766.1759</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>114641.5497</v>
+        <v>-10310.1187</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.1076</v>
+        <v>0.1193</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>11.1341</v>
       </c>
+      <c r="E12" s="1">
+        <v>10115.4003</v>
+      </c>
       <c r="F12" s="1">
-        <v>932.5485</v>
-      </c>
-      <c r="G12" s="1">
-        <v>11076.1732</v>
+        <v>925.9948000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>122684.1244</v>
+        <v>112042.2201</v>
       </c>
       <c r="I12" s="1">
-        <v>111915.4399</v>
+        <v>620.2374</v>
       </c>
       <c r="J12" s="1">
-        <v>10.1042</v>
+        <v>112662.4575</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101550.5935</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>10.0392</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10383.088</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>383.088</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>123067.2123</v>
+        <v>-10310.1187</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0126</v>
+        <v>-0.0137</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>10.9064</v>
       </c>
+      <c r="E13" s="1">
+        <v>11041.3951</v>
+      </c>
       <c r="F13" s="1">
-        <v>952.0179000000001</v>
-      </c>
-      <c r="G13" s="1">
-        <v>12028.1911</v>
+        <v>945.3274</v>
       </c>
       <c r="H13" s="1">
-        <v>130503.4673</v>
+        <v>119796.9288</v>
       </c>
       <c r="I13" s="1">
-        <v>122298.5278</v>
+        <v>310.1187</v>
       </c>
       <c r="J13" s="1">
-        <v>10.1677</v>
+        <v>120107.0475</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111860.7123</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>10.131</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10383.088</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>130503.4673</v>
+        <v>-10310.1187</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0193</v>
+        <v>-0.0208</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>11.6267</v>
       </c>
+      <c r="E14" s="1">
+        <v>11986.7225</v>
+      </c>
       <c r="F14" s="1">
-        <v>-12028.1911</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-11041.3951</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>138642.0286</v>
       </c>
       <c r="I14" s="1">
-        <v>122298.5278</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>10.1677</v>
+        <v>138642.0286</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111860.7123</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>9.332100000000001</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>139121.6662</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>139121.6662</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>139121.6662</v>
+        <v>127708.0884</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0098</v>
+        <v>0.06560000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>9.073499999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1102.1105</v>
       </c>
       <c r="G2" s="1">
-        <v>1102.1105</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.0906</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>9.073499999999999</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.0906</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>9.379</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>1102.1105</v>
       </c>
       <c r="F3" s="1">
         <v>1041.4433</v>
       </c>
       <c r="G3" s="1">
-        <v>2143.5538</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10283.022</v>
       </c>
       <c r="I3" s="1">
-        <v>19767.6963</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9.2219</v>
+        <v>10283.022</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9767.6963</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>8.8627</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9767.6963</v>
       </c>
-      <c r="O3" s="1">
-        <v>232.3037</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20232.3037</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0142</v>
+        <v>0.0283</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>9.661099999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>2143.5538</v>
       </c>
       <c r="F4" s="1">
         <v>977.902</v>
       </c>
       <c r="G4" s="1">
-        <v>3121.4558</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20601.4812</v>
       </c>
       <c r="I4" s="1">
-        <v>29215.3058</v>
+        <v>232.3037</v>
       </c>
       <c r="J4" s="1">
-        <v>9.359500000000001</v>
+        <v>20833.7849</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19215.3058</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>8.9642</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9447.6095</v>
       </c>
-      <c r="O4" s="1">
-        <v>784.6942</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30784.6942</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0183</v>
+        <v>0.0272</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>10.7352</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>3121.4558</v>
       </c>
       <c r="F5" s="1">
         <v>624.0379</v>
       </c>
       <c r="G5" s="1">
-        <v>3745.4937</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>33335.5877</v>
       </c>
       <c r="I5" s="1">
-        <v>35914.477</v>
+        <v>784.6942</v>
       </c>
       <c r="J5" s="1">
-        <v>9.588699999999999</v>
+        <v>34120.2819</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>25914.477</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>8.302</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-6699.1712</v>
       </c>
-      <c r="O5" s="1">
-        <v>4085.523</v>
-      </c>
-      <c r="P5" s="1">
-        <v>44085.523</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0809</v>
+        <v>0.1066</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>10.2783</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>3745.4937</v>
       </c>
       <c r="F6" s="1">
         <v>1144.4818</v>
       </c>
       <c r="G6" s="1">
-        <v>4889.9756</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>38297.6731</v>
       </c>
       <c r="I6" s="1">
-        <v>47677.8047</v>
+        <v>4085.523</v>
       </c>
       <c r="J6" s="1">
-        <v>9.7501</v>
+        <v>42383.1961</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37677.8047</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.0595</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-11763.3278</v>
       </c>
-      <c r="O6" s="1">
-        <v>2322.1953</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52322.1953</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0326</v>
+        <v>-0.0394</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>4889.9756</v>
       </c>
       <c r="F7" s="1">
         <v>1259.7077</v>
       </c>
       <c r="G7" s="1">
-        <v>6149.6833</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>47709.5355</v>
       </c>
       <c r="I7" s="1">
-        <v>60032.3884</v>
+        <v>2322.1953</v>
       </c>
       <c r="J7" s="1">
-        <v>9.761900000000001</v>
+        <v>50031.7307</v>
       </c>
       <c r="K7" s="1">
+        <v>50032.3884</v>
+      </c>
+      <c r="L7" s="1">
+        <v>10.2316</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.5</v>
       </c>
-      <c r="L7" s="1">
-        <v>2200.489</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-10154.0947</v>
+        <v>1685.4722</v>
       </c>
       <c r="O7" s="1">
-        <v>2168.1006</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>62168.1006</v>
+        <v>-10669.1115</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0025</v>
+        <v>-0.0449</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>10.4459</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>6149.6833</v>
       </c>
       <c r="F8" s="1">
         <v>586.4619</v>
       </c>
       <c r="G8" s="1">
-        <v>6736.1452</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>63905.6639</v>
       </c>
       <c r="I8" s="1">
-        <v>66158.5108</v>
+        <v>1653.0837</v>
       </c>
       <c r="J8" s="1">
-        <v>9.821400000000001</v>
+        <v>65558.7476</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>56158.5108</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>9.1319</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-6126.1224</v>
       </c>
-      <c r="O8" s="1">
-        <v>6041.9782</v>
-      </c>
-      <c r="P8" s="1">
-        <v>76041.9782</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0537</v>
+        <v>0.0921</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>9.6988</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>6736.1452</v>
       </c>
       <c r="F9" s="1">
         <v>1555.385</v>
       </c>
       <c r="G9" s="1">
-        <v>8291.530199999999</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>64993.0233</v>
       </c>
       <c r="I9" s="1">
-        <v>81243.8789</v>
+        <v>5526.9614</v>
       </c>
       <c r="J9" s="1">
-        <v>9.798400000000001</v>
+        <v>70519.9846</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71243.8789</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>10.5764</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-15085.3681</v>
       </c>
-      <c r="O9" s="1">
-        <v>956.6101</v>
-      </c>
-      <c r="P9" s="1">
-        <v>80956.61010000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0591</v>
+        <v>-0.0667</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>10.0658</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>8291.530199999999</v>
       </c>
       <c r="F10" s="1">
         <v>696.3362</v>
       </c>
       <c r="G10" s="1">
-        <v>8987.866400000001</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>83027.2377</v>
       </c>
       <c r="I10" s="1">
-        <v>88253.05959999999</v>
+        <v>441.5932</v>
       </c>
       <c r="J10" s="1">
-        <v>9.819100000000001</v>
+        <v>83468.8309</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>78253.05959999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>9.4377</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-7009.1807</v>
       </c>
-      <c r="O10" s="1">
-        <v>3947.4294</v>
-      </c>
-      <c r="P10" s="1">
-        <v>93947.42939999999</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0329</v>
+        <v>0.0366</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>11.2848</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>8987.866400000001</v>
       </c>
       <c r="F11" s="1">
         <v>-80.212</v>
       </c>
       <c r="G11" s="1">
-        <v>8907.6543</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>100900.4843</v>
       </c>
       <c r="I11" s="1">
-        <v>87347.8829</v>
+        <v>3432.4125</v>
       </c>
       <c r="J11" s="1">
-        <v>9.805899999999999</v>
+        <v>104332.8969</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>77347.8829</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>8.6058</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>900.4843</v>
       </c>
-      <c r="O11" s="1">
-        <v>14847.9137</v>
-      </c>
-      <c r="P11" s="1">
-        <v>114847.9137</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.1049</v>
+        <v>0.1162</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>11.1341</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>8907.6543</v>
       </c>
       <c r="F12" s="1">
         <v>1023.3702</v>
       </c>
       <c r="G12" s="1">
-        <v>9931.0245</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>98664.7426</v>
       </c>
       <c r="I12" s="1">
-        <v>98742.1887</v>
+        <v>14332.8969</v>
       </c>
       <c r="J12" s="1">
-        <v>9.9428</v>
+        <v>112997.6395</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>88742.1887</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>9.9625</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-11394.3058</v>
       </c>
-      <c r="O12" s="1">
-        <v>13453.6079</v>
-      </c>
-      <c r="P12" s="1">
-        <v>123453.6079</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0112</v>
+        <v>-0.0117</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>10.9064</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>9931.0245</v>
       </c>
       <c r="F13" s="1">
         <v>1129.0872</v>
       </c>
       <c r="G13" s="1">
-        <v>11060.1117</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>107749.6298</v>
       </c>
       <c r="I13" s="1">
-        <v>111056.4652</v>
+        <v>12938.591</v>
       </c>
       <c r="J13" s="1">
-        <v>10.0412</v>
+        <v>120688.2209</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>101056.4652</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>10.1758</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-12314.2765</v>
       </c>
-      <c r="O13" s="1">
-        <v>11139.3314</v>
-      </c>
-      <c r="P13" s="1">
-        <v>131139.3314</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0173</v>
+        <v>-0.0188</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>11.6267</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>11060.1117</v>
       </c>
       <c r="F14" s="1">
         <v>-11060.1117</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>127924.57</v>
       </c>
       <c r="I14" s="1">
-        <v>111056.4652</v>
+        <v>10624.3145</v>
       </c>
       <c r="J14" s="1">
-        <v>10.0412</v>
+        <v>138548.8846</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>101056.4652</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>9.137</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>127924.57</v>
       </c>
-      <c r="O14" s="1">
-        <v>139063.9014</v>
-      </c>
-      <c r="P14" s="1">
-        <v>139063.9014</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0147</v>
+        <v>0.0601</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>9.073499999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1102.1105</v>
       </c>
       <c r="G2" s="1">
-        <v>1102.1105</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.0906</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>9.073499999999999</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.0906</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>9.379</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>1102.1105</v>
       </c>
       <c r="F3" s="1">
         <v>1046.8021</v>
       </c>
       <c r="G3" s="1">
-        <v>2148.9127</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10283.022</v>
       </c>
       <c r="I3" s="1">
-        <v>19817.9573</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9.222300000000001</v>
+        <v>10283.022</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9817.9573</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>8.908300000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9817.9573</v>
       </c>
-      <c r="O3" s="1">
-        <v>182.0427</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20232.0427</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0142</v>
+        <v>0.0283</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>9.661099999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>2148.9127</v>
       </c>
       <c r="F4" s="1">
         <v>988.1765</v>
       </c>
       <c r="G4" s="1">
-        <v>3137.0891</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20652.9849</v>
       </c>
       <c r="I4" s="1">
-        <v>29364.8288</v>
+        <v>182.0427</v>
       </c>
       <c r="J4" s="1">
-        <v>9.3605</v>
+        <v>20835.0276</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19364.8288</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>9.0115</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9546.8716</v>
       </c>
-      <c r="O4" s="1">
-        <v>635.1712</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30785.4212</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0183</v>
+        <v>0.0272</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>10.7352</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>3137.0891</v>
       </c>
       <c r="F5" s="1">
         <v>636.5895</v>
       </c>
       <c r="G5" s="1">
-        <v>3773.6787</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>33502.5435</v>
       </c>
       <c r="I5" s="1">
-        <v>36198.7447</v>
+        <v>635.1712</v>
       </c>
       <c r="J5" s="1">
-        <v>9.5924</v>
+        <v>34137.7146</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>26198.7447</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>8.3513</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-6833.9158</v>
       </c>
-      <c r="O5" s="1">
-        <v>3801.2553</v>
-      </c>
-      <c r="P5" s="1">
-        <v>44102.2566</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0813</v>
+        <v>0.1071</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>10.2783</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>3773.6787</v>
       </c>
       <c r="F6" s="1">
         <v>1165.4418</v>
       </c>
       <c r="G6" s="1">
-        <v>4939.1204</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>38585.8643</v>
       </c>
       <c r="I6" s="1">
-        <v>48177.5047</v>
+        <v>3801.2553</v>
       </c>
       <c r="J6" s="1">
-        <v>9.754300000000001</v>
+        <v>42387.1196</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38177.5047</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.1168</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-11978.76</v>
       </c>
-      <c r="O6" s="1">
-        <v>1822.4953</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52325.0016</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0328</v>
+        <v>-0.0397</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>4939.1204</v>
       </c>
       <c r="F7" s="1">
         <v>1205.4545</v>
       </c>
       <c r="G7" s="1">
-        <v>6144.5749</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>59950.1599</v>
+        <v>48189.0223</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>1822.4953</v>
       </c>
       <c r="J7" s="1">
-        <v>9.764699999999999</v>
+        <v>50011.5176</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>10.1233</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.5</v>
       </c>
-      <c r="L7" s="1">
-        <v>2222.6042</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-9599.891100000001</v>
+        <v>1698.1554</v>
       </c>
       <c r="O7" s="1">
-        <v>2222.6042</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>62172.7641</v>
+        <v>-10124.3399</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0024</v>
+        <v>-0.0453</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>10.4459</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>6144.5749</v>
       </c>
       <c r="F8" s="1">
         <v>693.4587</v>
       </c>
       <c r="G8" s="1">
-        <v>6838.0336</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>63852.5795</v>
       </c>
       <c r="I8" s="1">
-        <v>67243.79979999999</v>
+        <v>1698.1554</v>
       </c>
       <c r="J8" s="1">
-        <v>9.8338</v>
+        <v>65550.7349</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>57243.7998</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>9.3162</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-7243.7998</v>
       </c>
-      <c r="O8" s="1">
-        <v>4978.8043</v>
-      </c>
-      <c r="P8" s="1">
-        <v>76037.59819999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0535</v>
+        <v>0.09229999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>9.6988</v>
       </c>
       <c r="E9" s="1">
+        <v>6838.0336</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1490.3241</v>
+      </c>
+      <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
-      <c r="F9" s="1">
-        <v>1544.3977</v>
-      </c>
-      <c r="G9" s="1">
-        <v>8382.4313</v>
-      </c>
       <c r="H9" s="1">
-        <v>80877.0502</v>
+        <v>65976.08349999999</v>
       </c>
       <c r="I9" s="1">
-        <v>82222.6042</v>
+        <v>4454.3556</v>
       </c>
       <c r="J9" s="1">
-        <v>9.8089</v>
+        <v>70430.439</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71698.1554</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>10.4852</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-14978.8043</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>80877.0502</v>
+        <v>-14454.3556</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.06</v>
+        <v>-0.0678</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>10.0658</v>
       </c>
       <c r="E10" s="1">
+        <v>8328.3577</v>
+      </c>
+      <c r="F10" s="1">
+        <v>841.379</v>
+      </c>
+      <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
-      <c r="F10" s="1">
-        <v>787.3054</v>
-      </c>
-      <c r="G10" s="1">
-        <v>9169.736699999999</v>
-      </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>83396.0101</v>
       </c>
       <c r="I10" s="1">
-        <v>90147.4627</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>9.831</v>
+        <v>83396.0101</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80167.3077</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>9.6258</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-7924.8585</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>2075.1415</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>93896.29979999999</v>
+        <v>-8469.1523</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0332</v>
+        <v>0.0369</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>11.2848</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>9169.736699999999</v>
       </c>
       <c r="F11" s="1">
         <v>-58.9643</v>
       </c>
       <c r="G11" s="1">
-        <v>9110.7724</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>102942.2149</v>
       </c>
       <c r="I11" s="1">
-        <v>89482.0624</v>
+        <v>1530.8477</v>
       </c>
       <c r="J11" s="1">
-        <v>9.8216</v>
+        <v>104473.0627</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>79501.9074</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>8.67</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>661.9509</v>
       </c>
-      <c r="O11" s="1">
-        <v>12737.0924</v>
-      </c>
-      <c r="P11" s="1">
-        <v>115017.3564</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.107</v>
+        <v>0.1186</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>11.1341</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>9110.7724</v>
       </c>
       <c r="F12" s="1">
         <v>1072.2894</v>
       </c>
       <c r="G12" s="1">
-        <v>10183.0618</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>100914.5593</v>
       </c>
       <c r="I12" s="1">
-        <v>101421.0396</v>
+        <v>12192.7986</v>
       </c>
       <c r="J12" s="1">
-        <v>9.9598</v>
+        <v>113107.3579</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>91440.8846</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>10.0366</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-11938.9772</v>
       </c>
-      <c r="O12" s="1">
-        <v>10798.1152</v>
-      </c>
-      <c r="P12" s="1">
-        <v>123589.7806</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0114</v>
+        <v>-0.0119</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>10.9064</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>10183.0618</v>
       </c>
       <c r="F13" s="1">
         <v>1186.3297</v>
       </c>
       <c r="G13" s="1">
-        <v>11369.3915</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>110484.1836</v>
       </c>
       <c r="I13" s="1">
-        <v>114359.626</v>
+        <v>10253.8214</v>
       </c>
       <c r="J13" s="1">
-        <v>10.0586</v>
+        <v>120738.005</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>104379.471</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>10.2503</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-12938.5864</v>
       </c>
-      <c r="O13" s="1">
-        <v>7859.5288</v>
-      </c>
-      <c r="P13" s="1">
-        <v>131215.1525</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0178</v>
+        <v>-0.0192</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>11.6267</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>11369.3915</v>
       </c>
       <c r="F14" s="1">
         <v>-11369.3915</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>131501.7927</v>
       </c>
       <c r="I14" s="1">
-        <v>114359.626</v>
+        <v>7315.235</v>
       </c>
       <c r="J14" s="1">
-        <v>10.0586</v>
+        <v>138817.0277</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>104379.471</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>9.1807</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>131501.7927</v>
       </c>
-      <c r="O14" s="1">
-        <v>139361.3215</v>
-      </c>
-      <c r="P14" s="1">
-        <v>139361.3215</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0131</v>
+        <v>0.0618</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>9.073499999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1102.1105</v>
       </c>
       <c r="G2" s="1">
-        <v>1102.1105</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.0906</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>9.073499999999999</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.0906</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>9.379</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>1102.1105</v>
       </c>
       <c r="F3" s="1">
         <v>1052.161</v>
       </c>
       <c r="G3" s="1">
-        <v>2154.2716</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10283.022</v>
       </c>
       <c r="I3" s="1">
-        <v>19868.2183</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9.2227</v>
+        <v>10283.022</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9868.2183</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>8.953900000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9868.2183</v>
       </c>
-      <c r="O3" s="1">
-        <v>131.7817</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20231.7817</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0142</v>
+        <v>0.0283</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>9.661099999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>2154.2716</v>
       </c>
       <c r="F4" s="1">
         <v>998.5029</v>
       </c>
       <c r="G4" s="1">
-        <v>3152.7745</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20704.4886</v>
       </c>
       <c r="I4" s="1">
-        <v>29514.8545</v>
+        <v>131.7817</v>
       </c>
       <c r="J4" s="1">
-        <v>9.361499999999999</v>
+        <v>20836.2703</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19514.8545</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>9.0587</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9646.636200000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>485.1455</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30786.1455</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0183</v>
+        <v>0.0273</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>10.7352</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>3152.7745</v>
       </c>
       <c r="F5" s="1">
         <v>649.2771</v>
       </c>
       <c r="G5" s="1">
-        <v>3802.0516</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>33670.0548</v>
       </c>
       <c r="I5" s="1">
-        <v>36484.9745</v>
+        <v>485.1455</v>
       </c>
       <c r="J5" s="1">
-        <v>9.5961</v>
+        <v>34155.2003</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>26484.9745</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>8.400499999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-6970.12</v>
       </c>
-      <c r="O5" s="1">
-        <v>3515.0255</v>
-      </c>
-      <c r="P5" s="1">
-        <v>44119.0355</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.08169999999999999</v>
+        <v>0.1076</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>10.2783</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>3802.0516</v>
       </c>
       <c r="F6" s="1">
         <v>1186.7064</v>
       </c>
       <c r="G6" s="1">
-        <v>4988.758</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>38875.9776</v>
       </c>
       <c r="I6" s="1">
-        <v>48682.2985</v>
+        <v>3515.0255</v>
       </c>
       <c r="J6" s="1">
-        <v>9.7584</v>
+        <v>42391.0031</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38682.2985</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.1741</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-12197.324</v>
       </c>
-      <c r="O6" s="1">
-        <v>1317.7015</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52327.7516</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0331</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>4988.758</v>
       </c>
       <c r="F7" s="1">
         <v>1153.9844</v>
       </c>
       <c r="G7" s="1">
-        <v>6142.7423</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>59932.2796</v>
+        <v>48673.3159</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>1317.7015</v>
       </c>
       <c r="J7" s="1">
-        <v>9.7676</v>
+        <v>49991.0174</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>10.0225</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.5</v>
       </c>
-      <c r="L7" s="1">
-        <v>2244.9411</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-9072.7605</v>
+        <v>1710.9232</v>
       </c>
       <c r="O7" s="1">
-        <v>2244.9411</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>62177.2207</v>
+        <v>-9606.7783</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0024</v>
+        <v>-0.0458</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>10.4459</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>6142.7423</v>
       </c>
       <c r="F8" s="1">
         <v>798.8892</v>
       </c>
       <c r="G8" s="1">
-        <v>6941.6315</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>63833.5353</v>
       </c>
       <c r="I8" s="1">
-        <v>68345.11659999999</v>
+        <v>1710.9232</v>
       </c>
       <c r="J8" s="1">
-        <v>9.845700000000001</v>
+        <v>65544.45849999999</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>58345.1166</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>9.498200000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8345.116599999999</v>
       </c>
-      <c r="O8" s="1">
-        <v>3899.8244</v>
-      </c>
-      <c r="P8" s="1">
-        <v>76035.1765</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0535</v>
+        <v>0.0926</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>9.6988</v>
       </c>
       <c r="E9" s="1">
+        <v>6941.6315</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1378.0887</v>
+      </c>
+      <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
-      <c r="F9" s="1">
-        <v>1433.1489</v>
-      </c>
-      <c r="G9" s="1">
-        <v>8374.7804</v>
-      </c>
       <c r="H9" s="1">
-        <v>80803.2311</v>
+        <v>66975.63740000001</v>
       </c>
       <c r="I9" s="1">
-        <v>82244.9411</v>
+        <v>3365.8066</v>
       </c>
       <c r="J9" s="1">
-        <v>9.820499999999999</v>
+        <v>70341.444</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71710.9232</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>10.3306</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-13899.8244</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>80803.2311</v>
+        <v>-13365.8066</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0608</v>
+        <v>-0.0689</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>10.0658</v>
       </c>
       <c r="E10" s="1">
+        <v>8319.7202</v>
+      </c>
+      <c r="F10" s="1">
+        <v>993.463</v>
+      </c>
+      <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
-      <c r="F10" s="1">
-        <v>981.1164</v>
-      </c>
-      <c r="G10" s="1">
-        <v>9355.8968</v>
-      </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>83309.51820000001</v>
       </c>
       <c r="I10" s="1">
-        <v>92120.6627</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>9.846299999999999</v>
+        <v>83309.51820000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81710.9232</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>9.821400000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-9875.721600000001</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>124.2784</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>93809.5511</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0331</v>
+        <v>0.0369</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>11.2848</v>
       </c>
       <c r="E11" s="1">
+        <v>9313.183199999999</v>
+      </c>
+      <c r="F11" s="1">
+        <v>6.1941</v>
+      </c>
+      <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
-      <c r="F11" s="1">
-        <v>-36.5195</v>
-      </c>
-      <c r="G11" s="1">
-        <v>9319.3773</v>
-      </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>104552.5886</v>
       </c>
       <c r="I11" s="1">
-        <v>91708.5474</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>9.8406</v>
+        <v>104552.5886</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>81780.8223</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>8.7812</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>409.9789</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>10534.2573</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>115156.3827</v>
+        <v>-69.8991</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.1093</v>
+        <v>0.1205</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>11.1341</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>9319.3773</v>
       </c>
       <c r="F12" s="1">
         <v>1123.3971</v>
       </c>
       <c r="G12" s="1">
-        <v>10442.7744</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>103225.1508</v>
       </c>
       <c r="I12" s="1">
-        <v>104216.5633</v>
+        <v>9930.100899999999</v>
       </c>
       <c r="J12" s="1">
-        <v>9.979799999999999</v>
+        <v>113155.2516</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>94288.8383</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>10.1175</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-12508.0159</v>
       </c>
-      <c r="O12" s="1">
-        <v>8026.2414</v>
-      </c>
-      <c r="P12" s="1">
-        <v>123694.5881</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0117</v>
+        <v>-0.0122</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>10.9064</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>10442.7744</v>
       </c>
       <c r="F13" s="1">
         <v>1246.3839</v>
       </c>
       <c r="G13" s="1">
-        <v>11689.1583</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>113302.014</v>
       </c>
       <c r="I13" s="1">
-        <v>117810.1248</v>
+        <v>7422.0849</v>
       </c>
       <c r="J13" s="1">
-        <v>10.0786</v>
+        <v>120724.0989</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>107882.3998</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>10.3308</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-13593.5615</v>
       </c>
-      <c r="O13" s="1">
-        <v>4432.6799</v>
-      </c>
-      <c r="P13" s="1">
-        <v>131257.71</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0182</v>
+        <v>-0.0197</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>11.6267</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>11689.1583</v>
       </c>
       <c r="F14" s="1">
         <v>-11689.1583</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>135200.3121</v>
       </c>
       <c r="I14" s="1">
-        <v>117810.1248</v>
+        <v>3828.5235</v>
       </c>
       <c r="J14" s="1">
-        <v>10.0786</v>
+        <v>139028.8355</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>107882.3998</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>9.2293</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>135200.3121</v>
       </c>
-      <c r="O14" s="1">
-        <v>139632.992</v>
-      </c>
-      <c r="P14" s="1">
-        <v>139632.992</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0115</v>
+        <v>0.0635</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>9.073499999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1102.1105</v>
       </c>
       <c r="G2" s="1">
-        <v>1102.1105</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.0906</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>9.073499999999999</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.0906</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>9.379</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>1102.1105</v>
       </c>
       <c r="F3" s="1">
         <v>1057.5199</v>
       </c>
       <c r="G3" s="1">
-        <v>2159.6305</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10283.022</v>
       </c>
       <c r="I3" s="1">
-        <v>19918.4792</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9.223100000000001</v>
+        <v>10283.022</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9918.4792</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>8.999499999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9918.4792</v>
       </c>
-      <c r="O3" s="1">
-        <v>81.52079999999999</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20231.5208</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0142</v>
+        <v>0.0283</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>9.661099999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>2159.6305</v>
       </c>
       <c r="F4" s="1">
         <v>1008.8813</v>
       </c>
       <c r="G4" s="1">
-        <v>3168.5118</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>20755.9923</v>
       </c>
       <c r="I4" s="1">
-        <v>29665.3828</v>
+        <v>81.52079999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>9.3626</v>
+        <v>20837.5131</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19665.3828</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>9.1059</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9746.9035</v>
       </c>
-      <c r="O4" s="1">
-        <v>334.6172</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30786.8672</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0184</v>
+        <v>0.0273</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>10.7352</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>3168.5118</v>
       </c>
       <c r="F5" s="1">
         <v>662.1014</v>
       </c>
       <c r="G5" s="1">
-        <v>3830.6132</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>33838.1217</v>
       </c>
       <c r="I5" s="1">
-        <v>36773.1739</v>
+        <v>334.6172</v>
       </c>
       <c r="J5" s="1">
-        <v>9.5998</v>
+        <v>34172.7389</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>26773.1739</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>8.4498</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-7107.7911</v>
       </c>
-      <c r="O5" s="1">
-        <v>3226.8261</v>
-      </c>
-      <c r="P5" s="1">
-        <v>44135.8599</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.08210000000000001</v>
+        <v>0.1082</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>10.2783</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>3830.6132</v>
       </c>
       <c r="F6" s="1">
         <v>1208.2787</v>
       </c>
       <c r="G6" s="1">
-        <v>5038.8919</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>39168.02</v>
       </c>
       <c r="I6" s="1">
-        <v>49192.2243</v>
+        <v>3226.8261</v>
       </c>
       <c r="J6" s="1">
-        <v>9.762499999999999</v>
+        <v>42394.8462</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39192.2243</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.2313</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-12419.0505</v>
       </c>
-      <c r="O6" s="1">
-        <v>807.7757</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52330.4449</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0333</v>
+        <v>-0.0402</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>5038.8919</v>
       </c>
       <c r="F7" s="1">
         <v>1101.9909</v>
       </c>
       <c r="G7" s="1">
-        <v>6140.8828</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>59914.1366</v>
+        <v>49162.4523</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>807.7757</v>
       </c>
       <c r="J7" s="1">
-        <v>9.7706</v>
+        <v>49970.228</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>9.922800000000001</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.5</v>
       </c>
-      <c r="L7" s="1">
-        <v>2267.5013</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-8540.274299999999</v>
+        <v>1723.7759</v>
       </c>
       <c r="O7" s="1">
-        <v>2267.5013</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>62181.638</v>
+        <v>-9083.9997</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0024</v>
+        <v>-0.0463</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>10.4459</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>6140.8828</v>
       </c>
       <c r="F8" s="1">
         <v>906.0818</v>
       </c>
       <c r="G8" s="1">
-        <v>7046.9646</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>63814.2113</v>
       </c>
       <c r="I8" s="1">
-        <v>69464.8403</v>
+        <v>1723.7759</v>
       </c>
       <c r="J8" s="1">
-        <v>9.8574</v>
+        <v>65537.9872</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59464.8403</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>9.683400000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9464.8403</v>
       </c>
-      <c r="O8" s="1">
-        <v>2802.661</v>
-      </c>
-      <c r="P8" s="1">
-        <v>76032.603</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0534</v>
+        <v>0.09279999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>9.6988</v>
       </c>
       <c r="E9" s="1">
+        <v>7046.9646</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1263.9642</v>
+      </c>
+      <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
-      <c r="F9" s="1">
-        <v>1320.0253</v>
-      </c>
-      <c r="G9" s="1">
-        <v>8366.9899</v>
-      </c>
       <c r="H9" s="1">
-        <v>80728.0649</v>
+        <v>67991.9332</v>
       </c>
       <c r="I9" s="1">
-        <v>82267.5013</v>
+        <v>2258.9357</v>
       </c>
       <c r="J9" s="1">
-        <v>9.8324</v>
+        <v>70250.8688</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71723.77589999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>10.178</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-12802.661</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>80728.0649</v>
+        <v>-12258.9357</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0617</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>10.0658</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>8310.9288</v>
       </c>
       <c r="F10" s="1">
         <v>993.463</v>
       </c>
       <c r="G10" s="1">
-        <v>9360.4529</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>93730.89479999999</v>
+        <v>83221.48510000001</v>
       </c>
       <c r="I10" s="1">
-        <v>92267.5013</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>9.857200000000001</v>
+        <v>83221.48510000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81723.77589999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>9.833299999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>93730.89479999999</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0331</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>11.2848</v>
       </c>
       <c r="E11" s="1">
+        <v>9304.391799999999</v>
+      </c>
+      <c r="F11" s="1">
+        <v>229.2227</v>
+      </c>
+      <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
-      <c r="F11" s="1">
-        <v>173.1617</v>
-      </c>
-      <c r="G11" s="1">
-        <v>9533.6145</v>
-      </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>104453.8933</v>
       </c>
       <c r="I11" s="1">
-        <v>94221.5959</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>9.883100000000001</v>
+        <v>104453.8933</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>84310.5088</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>9.061400000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-1954.0946</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>8045.9054</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>115073.1221</v>
+        <v>-2586.7329</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.1093</v>
+        <v>0.1205</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>11.1341</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>9533.6145</v>
       </c>
       <c r="F12" s="1">
         <v>1176.781</v>
       </c>
       <c r="G12" s="1">
-        <v>10710.3955</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>105598.1279</v>
       </c>
       <c r="I12" s="1">
-        <v>107323.9933</v>
+        <v>7413.2671</v>
       </c>
       <c r="J12" s="1">
-        <v>10.0205</v>
+        <v>113011.395</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>97412.9062</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>10.2178</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-13102.3973</v>
       </c>
-      <c r="O12" s="1">
-        <v>4943.5081</v>
-      </c>
-      <c r="P12" s="1">
-        <v>123576.133</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.012</v>
+        <v>-0.0126</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>10.9064</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>10710.3955</v>
       </c>
       <c r="F13" s="1">
         <v>1309.3757</v>
       </c>
       <c r="G13" s="1">
-        <v>12019.7713</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>116205.6493</v>
       </c>
       <c r="I13" s="1">
-        <v>121604.5689</v>
+        <v>4310.8698</v>
       </c>
       <c r="J13" s="1">
-        <v>10.117</v>
+        <v>120516.5191</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111693.4818</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>10.4285</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-14280.5757</v>
       </c>
-      <c r="O13" s="1">
-        <v>662.9324</v>
-      </c>
-      <c r="P13" s="1">
-        <v>131075.0467</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0187</v>
+        <v>-0.0203</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>11.6267</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>12019.7713</v>
       </c>
       <c r="F14" s="1">
         <v>-12019.7713</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>139024.2804</v>
       </c>
       <c r="I14" s="1">
-        <v>121604.5689</v>
+        <v>30.2941</v>
       </c>
       <c r="J14" s="1">
-        <v>10.117</v>
+        <v>139054.5745</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111693.4818</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>9.2925</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>139024.2804</v>
       </c>
-      <c r="O14" s="1">
-        <v>139687.2128</v>
-      </c>
-      <c r="P14" s="1">
-        <v>139687.2128</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0098</v>
+        <v>0.0654</v>
       </c>
     </row>
   </sheetData>
@@ -4478,7 +4451,7 @@
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>11.5953</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.1677</v>
+        <v>9.332100000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>10.0412</v>
+        <v>9.137</v>
       </c>
       <c r="E3" s="1">
-        <v>10.0586</v>
+        <v>9.1807</v>
       </c>
       <c r="F3" s="1">
-        <v>10.0786</v>
+        <v>9.2293</v>
       </c>
       <c r="G3" s="1">
-        <v>10.117</v>
+        <v>9.2925</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.2713</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1665</v>
+        <v>0.286</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1675</v>
+        <v>0.2857</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1701</v>
+        <v>0.2882</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1724</v>
+        <v>0.2902</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1726</v>
+        <v>0.2902</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.2064</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1622</v>
+        <v>0.2129</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1578</v>
+        <v>0.2038</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1596</v>
+        <v>0.2064</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1614</v>
+        <v>0.2088</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1619</v>
+        <v>0.2104</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.2163</v>
       </c>
       <c r="C6" s="4">
-        <v>0.9015</v>
+        <v>1.2477</v>
       </c>
       <c r="D6" s="4">
-        <v>0.9324</v>
+        <v>1.3021</v>
       </c>
       <c r="E6" s="4">
-        <v>0.9384</v>
+        <v>1.2982</v>
       </c>
       <c r="F6" s="4">
-        <v>0.9424</v>
+        <v>1.2926</v>
       </c>
       <c r="G6" s="4">
-        <v>0.9403</v>
+        <v>1.2828</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.3101</v>
+        <v>0.1217</v>
       </c>
       <c r="D7" s="3">
-        <v>0.3316</v>
+        <v>0.3206</v>
       </c>
       <c r="E7" s="3">
-        <v>0.331</v>
+        <v>0.3199</v>
       </c>
       <c r="F7" s="3">
-        <v>0.3303</v>
+        <v>0.3184</v>
       </c>
       <c r="G7" s="3">
-        <v>0.3262</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>2298.5278</v>
+        <v>1860.7123</v>
       </c>
       <c r="D8" s="1">
-        <v>2200.489</v>
+        <v>1685.4722</v>
       </c>
       <c r="E8" s="1">
-        <v>2222.6042</v>
+        <v>1698.1554</v>
       </c>
       <c r="F8" s="1">
-        <v>2244.9411</v>
+        <v>1710.9232</v>
       </c>
       <c r="G8" s="1">
-        <v>2267.5013</v>
+        <v>1723.7759</v>
       </c>
     </row>
   </sheetData>
